--- a/Rashin-100.xlsx
+++ b/Rashin-100.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\auxiliary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B288B03B-8CD4-45F4-AF6B-AC9A67549A64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A11B71-BD7A-4C38-B68B-5712B2F2E077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16440" yWindow="285" windowWidth="20325" windowHeight="23295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="660" windowWidth="36405" windowHeight="22230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="93">
   <si>
     <r>
       <rPr>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Губернии</t>
+  </si>
+  <si>
+    <t>население губерний в границах РСФСР</t>
   </si>
 </sst>
 </file>
@@ -819,6 +822,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,9 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
@@ -1178,19 +1181,19 @@
     <row r="5" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="16" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1553,7 @@
       <c r="B31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="54">
+      <c r="C31" s="50">
         <v>2405.8000000000002</v>
       </c>
       <c r="D31" s="25">
@@ -1945,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC942A23-44FC-4EF1-B80F-CAE496026525}">
-  <dimension ref="A1:AK68"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="V53" sqref="V53"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AN55" sqref="AN55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1956,13 +1959,18 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="31"/>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AM2" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
       <c r="B3" s="39">
         <v>1897</v>
@@ -2060,8 +2068,14 @@
       <c r="AK3" s="34" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM3" s="43">
+        <v>1896</v>
+      </c>
+      <c r="AN3" s="43">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
         <v>37</v>
       </c>
@@ -2188,8 +2202,16 @@
         <f>AD4*$AF4</f>
         <v>464.97472358933163</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM4" s="35">
+        <f>G4*AF4</f>
+        <v>339.77535266948252</v>
+      </c>
+      <c r="AN4">
+        <f>Y4*AF4</f>
+        <v>483.50000000000045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
         <v>5</v>
       </c>
@@ -2316,8 +2338,16 @@
         <f t="shared" si="8"/>
         <v>1274.7117063706971</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM5" s="35">
+        <f t="shared" ref="AM5:AM53" si="9">G5*AF5</f>
+        <v>987.62829398872975</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" ref="AN5:AN53" si="10">Y5*AF5</f>
+        <v>1315.8999999999983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>57</v>
       </c>
@@ -2444,8 +2474,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM6" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>15</v>
       </c>
@@ -2572,8 +2610,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM7" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>58</v>
       </c>
@@ -2700,8 +2746,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM8" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
         <v>39</v>
       </c>
@@ -2828,8 +2882,16 @@
         <f t="shared" si="8"/>
         <v>1959.0442649598444</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM9" s="35">
+        <f t="shared" si="9"/>
+        <v>1490.0036728942678</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" si="10"/>
+        <v>2027.000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="33" t="s">
         <v>59</v>
       </c>
@@ -2956,8 +3018,16 @@
         <f t="shared" si="8"/>
         <v>1697.6697298258669</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM10" s="35">
+        <f t="shared" si="9"/>
+        <v>1320.9279562184652</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="10"/>
+        <v>1751.5999999999981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
         <v>11</v>
       </c>
@@ -3084,8 +3154,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM11" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
         <v>28</v>
       </c>
@@ -3212,8 +3290,16 @@
         <f t="shared" si="8"/>
         <v>3480.548026852613</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM12" s="35">
+        <f t="shared" si="9"/>
+        <v>2478.1506115577131</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="10"/>
+        <v>3630.8999999999974</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="33" t="s">
         <v>34</v>
       </c>
@@ -3340,8 +3426,16 @@
         <f t="shared" si="8"/>
         <v>3809.1624962298752</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM13" s="35">
+        <f t="shared" si="9"/>
+        <v>2984.9796185791683</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="10"/>
+        <v>3926.6999999999975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
         <v>17</v>
       </c>
@@ -3468,8 +3562,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM14" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
         <v>60</v>
       </c>
@@ -3596,8 +3698,16 @@
         <f t="shared" si="8"/>
         <v>3692.8327435046544</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM15" s="35">
+        <f t="shared" si="9"/>
+        <v>2502.6324980615846</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="10"/>
+        <v>3875.9999999999968</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
         <v>3</v>
       </c>
@@ -3724,8 +3834,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM16" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>32</v>
       </c>
@@ -3852,8 +3970,16 @@
         <f t="shared" si="8"/>
         <v>2774.9260869450009</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM17" s="35">
+        <f t="shared" si="9"/>
+        <v>2135.4641430252786</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" si="10"/>
+        <v>2867.0000000000036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>47</v>
       </c>
@@ -3980,8 +4106,16 @@
         <f t="shared" si="8"/>
         <v>1431.3826367633346</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM18" s="35">
+        <f t="shared" si="9"/>
+        <v>1115.2753051877451</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="10"/>
+        <v>1476.6000000000017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>14</v>
       </c>
@@ -4069,7 +4203,7 @@
         <v>4709.356297545497</v>
       </c>
       <c r="Y19" s="37">
-        <f t="shared" ref="Y19" si="9">X19*$E19</f>
+        <f t="shared" ref="Y19" si="11">X19*$E19</f>
         <v>4792.4999999999973</v>
       </c>
       <c r="Z19" s="37"/>
@@ -4108,8 +4242,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM19" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>35</v>
       </c>
@@ -4137,67 +4279,67 @@
         <v>1561.4318929031465</v>
       </c>
       <c r="J20" s="37">
-        <f t="shared" ref="J20:Y35" si="10">I20*$E20</f>
+        <f t="shared" ref="J20:Y35" si="12">I20*$E20</f>
         <v>1578.4472071572598</v>
       </c>
       <c r="K20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1595.647941550722</v>
       </c>
       <c r="L20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1613.0361166532132</v>
       </c>
       <c r="M20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1630.613775053067</v>
       </c>
       <c r="N20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1648.3829815972135</v>
       </c>
       <c r="O20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1666.3458236337367</v>
       </c>
       <c r="P20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1684.5044112570752</v>
       </c>
       <c r="Q20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1702.8608775558951</v>
       </c>
       <c r="R20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1721.4173788636635</v>
       </c>
       <c r="S20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1740.1760950119533</v>
       </c>
       <c r="T20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1759.1392295865078</v>
       </c>
       <c r="U20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1778.309010186096</v>
       </c>
       <c r="V20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1797.6876886841881</v>
       </c>
       <c r="W20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1817.2775414934833</v>
       </c>
       <c r="X20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1837.0808698333201</v>
       </c>
       <c r="Y20" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1857.1</v>
       </c>
       <c r="Z20" s="37"/>
@@ -4236,8 +4378,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM20" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>38</v>
       </c>
@@ -4265,67 +4415,67 @@
         <v>1409.4634179534278</v>
       </c>
       <c r="J21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1432.2906463943468</v>
       </c>
       <c r="K21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1455.4875774835621</v>
       </c>
       <c r="L21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1479.0601988094709</v>
       </c>
       <c r="M21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1503.0145949335783</v>
       </c>
       <c r="N21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1527.3569489610441</v>
       </c>
       <c r="O21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1552.0935441366635</v>
       </c>
       <c r="P21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1577.2307654666988</v>
       </c>
       <c r="Q21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1602.7751013669752</v>
       </c>
       <c r="R21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1628.7331453376703</v>
       </c>
       <c r="S21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1655.111597665227</v>
       </c>
       <c r="T21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1681.9172671518309</v>
       </c>
       <c r="U21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1709.1570728728971</v>
       </c>
       <c r="V21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1736.8380459630205</v>
       </c>
       <c r="W21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1764.967331430852</v>
       </c>
       <c r="X21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1793.5521900033664</v>
       </c>
       <c r="Y21" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1822.6000000000004</v>
       </c>
       <c r="Z21" s="37"/>
@@ -4364,8 +4514,16 @@
         <f t="shared" si="8"/>
         <v>1765.1191891324131</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM21" s="35">
+        <f t="shared" si="9"/>
+        <v>1364.8945942799674</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" si="10"/>
+        <v>1822.6000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
         <v>48</v>
       </c>
@@ -4393,67 +4551,67 @@
         <v>680.74395355861679</v>
       </c>
       <c r="J22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>687.55538621159667</v>
       </c>
       <c r="K22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>694.43497314570322</v>
       </c>
       <c r="L22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>701.383396303528</v>
       </c>
       <c r="M22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>708.40134445108868</v>
       </c>
       <c r="N22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>715.48951324610323</v>
       </c>
       <c r="O22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>722.6486053069475</v>
       </c>
       <c r="P22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>729.87933028230248</v>
       </c>
       <c r="Q22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>737.18240492149857</v>
       </c>
       <c r="R22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>744.55855314556391</v>
       </c>
       <c r="S22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>752.00850611898318</v>
       </c>
       <c r="T22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>759.53300232217487</v>
       </c>
       <c r="U22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>767.13278762469338</v>
       </c>
       <c r="V22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>774.80861535916392</v>
       </c>
       <c r="W22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>782.56124639595669</v>
       </c>
       <c r="X22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>790.39144921860884</v>
       </c>
       <c r="Y22" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>798.30000000000064</v>
       </c>
       <c r="Z22" s="37"/>
@@ -4492,8 +4650,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM22" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>33</v>
       </c>
@@ -4521,67 +4687,67 @@
         <v>2415.6798100430374</v>
       </c>
       <c r="J23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2461.2015793545193</v>
       </c>
       <c r="K23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2507.5811740585191</v>
       </c>
       <c r="L23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2554.8347592649429</v>
       </c>
       <c r="M23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2602.9788047037059</v>
       </c>
       <c r="N23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2652.0300904650785</v>
       </c>
       <c r="O23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2702.0057128482076</v>
       </c>
       <c r="P23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2752.9230903198481</v>
       </c>
       <c r="Q23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2804.7999695853828</v>
       </c>
       <c r="R23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2857.6544317742446</v>
       </c>
       <c r="S23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2911.5048987419027</v>
       </c>
       <c r="T23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2966.3701394905997</v>
       </c>
       <c r="U23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3022.2692767110884</v>
       </c>
       <c r="V23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3079.221793447638</v>
       </c>
       <c r="W23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3137.2475398886422</v>
       </c>
       <c r="X23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3196.3667402851884</v>
       </c>
       <c r="Y23" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3256.6000000000026</v>
       </c>
       <c r="Z23" s="37"/>
@@ -4620,8 +4786,16 @@
         <f t="shared" si="8"/>
         <v>3137.6120245404895</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM23" s="35">
+        <f t="shared" si="9"/>
+        <v>2327.1465765571993</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="10"/>
+        <v>3256.6000000000026</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>26</v>
       </c>
@@ -4641,75 +4815,75 @@
         <v>1277.1002871243516</v>
       </c>
       <c r="H24" s="37">
-        <f t="shared" ref="H24:I43" si="11">G24*$E24</f>
+        <f t="shared" ref="H24:I43" si="13">G24*$E24</f>
         <v>1299.4000000000001</v>
       </c>
       <c r="I24" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1322.0890927852374</v>
       </c>
       <c r="J24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1345.1743645233894</v>
       </c>
       <c r="K24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1368.6627329772864</v>
       </c>
       <c r="L24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1392.5612367022504</v>
       </c>
       <c r="M24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1416.8770371552766</v>
       </c>
       <c r="N24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1441.6174208410457</v>
       </c>
       <c r="O24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1466.7898014954071</v>
       </c>
       <c r="P24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1492.4017223069889</v>
       </c>
       <c r="Q24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1518.4608581775994</v>
       </c>
       <c r="R24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1544.975018022099</v>
       </c>
       <c r="S24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1571.952147108429</v>
       </c>
       <c r="T24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1599.4003294385016</v>
       </c>
       <c r="U24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1627.3277901706622</v>
       </c>
       <c r="V24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1655.7428980844511</v>
       </c>
       <c r="W24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1684.6541680884036</v>
       </c>
       <c r="X24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1714.0702637716379</v>
       </c>
       <c r="Y24" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1743.999999999998</v>
       </c>
       <c r="Z24" s="37"/>
@@ -4748,8 +4922,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM24" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
         <v>7</v>
       </c>
@@ -4769,75 +4951,75 @@
         <v>2104.316480016349</v>
       </c>
       <c r="H25" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2147.6</v>
       </c>
       <c r="I25" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2191.7738152980519</v>
       </c>
       <c r="J25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2236.8562383247245</v>
       </c>
       <c r="K25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2282.8659581608445</v>
       </c>
       <c r="L25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2329.8220483014697</v>
       </c>
       <c r="M25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2377.7439745628767</v>
       </c>
       <c r="N25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2426.6516031521837</v>
       </c>
       <c r="O25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2476.5652089029595</v>
       </c>
       <c r="P25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2527.5054836802274</v>
       </c>
       <c r="Q25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2579.4935449583536</v>
       </c>
       <c r="R25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2632.5509445753714</v>
       </c>
       <c r="S25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2686.6996776673736</v>
       </c>
       <c r="T25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2741.9621917866762</v>
       </c>
       <c r="U25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2798.3613962075301</v>
       </c>
       <c r="V25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2855.920671423245</v>
       </c>
       <c r="W25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2914.6638788386567</v>
       </c>
       <c r="X25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2974.615370661958</v>
       </c>
       <c r="Y25" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3035.7999999999943</v>
       </c>
       <c r="Z25" s="37"/>
@@ -4876,8 +5058,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM25" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>10</v>
       </c>
@@ -4897,75 +5087,75 @@
         <v>1649.5519685849667</v>
       </c>
       <c r="H26" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1686.8</v>
       </c>
       <c r="I26" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1724.8891178862193</v>
       </c>
       <c r="J26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1763.8383145614773</v>
       </c>
       <c r="K26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1803.6670112033808</v>
       </c>
       <c r="L26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1844.3950675332424</v>
       </c>
       <c r="M26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1886.0427917187033</v>
       </c>
       <c r="N26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1928.6309504999624</v>
       </c>
       <c r="O26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1972.180779544665</v>
       </c>
       <c r="P26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2016.7139940366101</v>
       </c>
       <c r="Q26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2062.2527995035584</v>
       </c>
       <c r="R26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2108.8199028895419</v>
       </c>
       <c r="S26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2156.4385238771906</v>
       </c>
       <c r="T26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2205.1324064657269</v>
       </c>
       <c r="U26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2254.9258308104008</v>
       </c>
       <c r="V26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2305.8436253292643</v>
       </c>
       <c r="W26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2357.9111790833276</v>
       </c>
       <c r="X26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2411.1544544362678</v>
       </c>
       <c r="Y26" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2465.6000000000013</v>
       </c>
       <c r="Z26" s="37"/>
@@ -5004,8 +5194,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM26" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
         <v>16</v>
       </c>
@@ -5025,75 +5223,75 @@
         <v>2375.4213675390993</v>
       </c>
       <c r="H27" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2430.6</v>
       </c>
       <c r="I27" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2487.0603762061837</v>
       </c>
       <c r="J27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2544.8322697666604</v>
       </c>
       <c r="K27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2603.9461459012209</v>
       </c>
       <c r="L27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2664.4331775058558</v>
       </c>
       <c r="M27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2726.3252615913566</v>
       </c>
       <c r="N27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2789.6550361037694</v>
       </c>
       <c r="O27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2854.45589713557</v>
       </c>
       <c r="P27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2920.7620165366375</v>
       </c>
       <c r="Q27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2988.6083599343133</v>
       </c>
       <c r="R27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3058.0307051720479</v>
       </c>
       <c r="S27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3129.0656611763579</v>
       </c>
       <c r="T27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3201.7506872620443</v>
       </c>
       <c r="U27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3276.1241128858501</v>
       </c>
       <c r="V27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3352.2251578589785</v>
       </c>
       <c r="W27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3430.0939530291225</v>
       </c>
       <c r="X27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3509.7715614429217</v>
       </c>
       <c r="Y27" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3591.2999999999993</v>
       </c>
       <c r="Z27" s="37"/>
@@ -5132,8 +5330,16 @@
         <f t="shared" si="8"/>
         <v>3430.6968907770074</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM27" s="35">
+        <f t="shared" si="9"/>
+        <v>2375.4213675390993</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="10"/>
+        <v>3591.2999999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
         <v>44</v>
       </c>
@@ -5153,75 +5359,75 @@
         <v>1560.2374515713771</v>
       </c>
       <c r="H28" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1584.8</v>
       </c>
       <c r="I28" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1609.7492323815691</v>
       </c>
       <c r="J28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1635.0912362146964</v>
       </c>
       <c r="K28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1660.8321948324322</v>
       </c>
       <c r="L28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1686.9783889109694</v>
       </c>
       <c r="M28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1713.5361980021007</v>
       </c>
       <c r="N28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1740.5121020897993</v>
       </c>
       <c r="O28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1767.9126831713061</v>
       </c>
       <c r="P28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1795.7446268631059</v>
       </c>
       <c r="Q28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1824.0147240321883</v>
       </c>
       <c r="R28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1852.7298724529876</v>
       </c>
       <c r="S28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1881.8970784904084</v>
       </c>
       <c r="T28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1911.5234588093465</v>
       </c>
       <c r="U28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1941.6162421111228</v>
       </c>
       <c r="V28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1972.1827708972532</v>
       </c>
       <c r="W28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2003.2305032609852</v>
       </c>
       <c r="X28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2034.7670147070389</v>
       </c>
       <c r="Y28" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2066.7999999999956</v>
       </c>
       <c r="Z28" s="37"/>
@@ -5260,8 +5466,16 @@
         <f t="shared" si="8"/>
         <v>2003.3934296217592</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM28" s="35">
+        <f t="shared" si="9"/>
+        <v>1560.2374515713771</v>
+      </c>
+      <c r="AN28">
+        <f t="shared" si="10"/>
+        <v>2066.7999999999956</v>
+      </c>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
         <v>40</v>
       </c>
@@ -5281,75 +5495,75 @@
         <v>1350.9242356482871</v>
       </c>
       <c r="H29" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1367</v>
       </c>
       <c r="I29" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1383.2670631623141</v>
       </c>
       <c r="J29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1399.7277015579323</v>
       </c>
       <c r="K29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1416.3842186985933</v>
       </c>
       <c r="L29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1433.2389455074265</v>
       </c>
       <c r="M29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1450.2942406451425</v>
       </c>
       <c r="N29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1467.5524908401057</v>
       </c>
       <c r="O29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1485.016111222335</v>
       </c>
       <c r="P29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1502.6875456614775</v>
       </c>
       <c r="Q29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1520.5692671088059</v>
       </c>
       <c r="R29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1538.6637779432847</v>
       </c>
       <c r="S29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1556.9736103217544</v>
       </c>
       <c r="T29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1575.5013265332834</v>
       </c>
       <c r="U29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1594.2495193577358</v>
       </c>
       <c r="V29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1613.2208124286071</v>
       </c>
       <c r="W29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1632.4178606001769</v>
       </c>
       <c r="X29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1651.8433503190304</v>
       </c>
       <c r="Y29" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1671.500000000002</v>
       </c>
       <c r="Z29" s="37"/>
@@ -5388,8 +5602,16 @@
         <f t="shared" si="8"/>
         <v>1632.494007782605</v>
       </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM29" s="35">
+        <f t="shared" si="9"/>
+        <v>1350.9242356482871</v>
+      </c>
+      <c r="AN29">
+        <f t="shared" si="10"/>
+        <v>1671.500000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
         <v>46</v>
       </c>
@@ -5409,75 +5631,75 @@
         <v>358.96663671403655</v>
       </c>
       <c r="H30" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>364.2</v>
       </c>
       <c r="I30" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>369.5096603244113</v>
       </c>
       <c r="J30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>374.89673001938996</v>
       </c>
       <c r="K30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>380.36233763371035</v>
       </c>
       <c r="L30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>385.90762816922393</v>
       </c>
       <c r="M30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>391.53376332072804</v>
       </c>
       <c r="N30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>397.24192171933186</v>
       </c>
       <c r="O30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>403.03329917937037</v>
       </c>
       <c r="P30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>408.90910894891812</v>
       </c>
       <c r="Q30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>414.87058196395503</v>
       </c>
       <c r="R30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>420.91896710623797</v>
       </c>
       <c r="S30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>427.05553146493151</v>
       </c>
       <c r="T30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>433.28156060205322</v>
       </c>
       <c r="U30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>439.59835882178891</v>
       </c>
       <c r="V30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>446.00724944373394</v>
       </c>
       <c r="W30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>452.50957508011834</v>
       </c>
       <c r="X30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>459.10669791707363</v>
       </c>
       <c r="Y30" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>465.79999999999995</v>
       </c>
       <c r="Z30" s="37"/>
@@ -5516,8 +5738,16 @@
         <f t="shared" si="8"/>
         <v>452.54117414697527</v>
       </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM30" s="35">
+        <f t="shared" si="9"/>
+        <v>358.96663671403655</v>
+      </c>
+      <c r="AN30">
+        <f t="shared" si="10"/>
+        <v>465.79999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
         <v>61</v>
       </c>
@@ -5537,75 +5767,75 @@
         <v>1548.6607059305773</v>
       </c>
       <c r="H31" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1576.2</v>
       </c>
       <c r="I31" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1604.2290157463131</v>
       </c>
       <c r="J31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1632.7564617195687</v>
       </c>
       <c r="K31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1661.7912013309328</v>
       </c>
       <c r="L31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1691.3422556065254</v>
       </c>
       <c r="M31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1721.4188059902328</v>
       </c>
       <c r="N31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1752.0301971963611</v>
       </c>
       <c r="O31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1783.1859401130166</v>
       </c>
       <c r="P31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1814.8957147571173</v>
       </c>
       <c r="Q31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1847.169373281951</v>
       </c>
       <c r="R31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1880.0169430382173</v>
       </c>
       <c r="S31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1913.4486296895009</v>
       </c>
       <c r="T31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1947.4748203831489</v>
       </c>
       <c r="U31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1982.1060869775324</v>
       </c>
       <c r="V31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2017.3531893266988</v>
       </c>
       <c r="W31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2053.227078623433</v>
       </c>
       <c r="X31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2089.7389008017685</v>
       </c>
       <c r="Y31" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2126.9000000000019</v>
       </c>
       <c r="Z31" s="37"/>
@@ -5644,8 +5874,16 @@
         <f t="shared" si="8"/>
         <v>2053.4397229173005</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM31" s="35">
+        <f t="shared" si="9"/>
+        <v>1548.6607059305773</v>
+      </c>
+      <c r="AN31">
+        <f t="shared" si="10"/>
+        <v>2126.9000000000019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
         <v>30</v>
       </c>
@@ -5665,75 +5903,75 @@
         <v>1996.6784127792205</v>
       </c>
       <c r="H32" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2033.8</v>
       </c>
       <c r="I32" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2071.6117395402366</v>
       </c>
       <c r="J32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2110.1264624844753</v>
       </c>
       <c r="K32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2149.3572384685563</v>
       </c>
       <c r="L32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2189.3173801146845</v>
       </c>
       <c r="M32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2230.0204475489504</v>
       </c>
       <c r="N32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2271.4802530028414</v>
       </c>
       <c r="O32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2313.7108655003017</v>
       </c>
       <c r="P32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2356.7266156319338</v>
       </c>
       <c r="Q32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2400.5421004179593</v>
       </c>
       <c r="R32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2445.1721882615902</v>
       </c>
       <c r="S32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2490.6320239944935</v>
       </c>
       <c r="T32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2536.9370340160553</v>
       </c>
       <c r="U32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2584.102931528198</v>
       </c>
       <c r="V32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2632.1457218675168</v>
       </c>
       <c r="W32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2681.081707936552</v>
       </c>
       <c r="X32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2730.9274957360358</v>
       </c>
       <c r="Y32" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2781.6999999999962</v>
       </c>
       <c r="Z32" s="37"/>
@@ -5772,8 +6010,16 @@
         <f t="shared" si="8"/>
         <v>2681.3849751800349</v>
       </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM32" s="35">
+        <f t="shared" si="9"/>
+        <v>1996.6784127792205</v>
+      </c>
+      <c r="AN32">
+        <f t="shared" si="10"/>
+        <v>2781.6999999999962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
         <v>42</v>
       </c>
@@ -5793,75 +6039,75 @@
         <v>1447.9819458619127</v>
       </c>
       <c r="H33" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1470.5</v>
       </c>
       <c r="I33" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1493.3682399699032</v>
       </c>
       <c r="J33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1516.5921116292461</v>
       </c>
       <c r="K33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1540.1771455260157</v>
       </c>
       <c r="L33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1564.1289582156107</v>
       </c>
       <c r="M33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1588.4532535983712</v>
       </c>
       <c r="N33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1613.1558242779095</v>
       </c>
       <c r="O33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1638.2425529405643</v>
       </c>
       <c r="P33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1663.7194137563083</v>
       </c>
       <c r="Q33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1689.5924738014398</v>
       </c>
       <c r="R33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1715.8678945034007</v>
       </c>
       <c r="S33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1742.5519331080632</v>
       </c>
       <c r="T33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1769.6509441698338</v>
       </c>
       <c r="U33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1797.1713810649317</v>
       </c>
       <c r="V33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1825.1197975281993</v>
       </c>
       <c r="W33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1853.5028492138138</v>
       </c>
       <c r="X33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1882.3272952802679</v>
       </c>
       <c r="Y33" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1911.6000000000013</v>
       </c>
       <c r="Z33" s="37"/>
@@ -5900,8 +6146,16 @@
         <f t="shared" si="8"/>
         <v>1853.6499806740937</v>
       </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM33" s="35">
+        <f t="shared" si="9"/>
+        <v>1447.9819458619127</v>
+      </c>
+      <c r="AN33">
+        <f t="shared" si="10"/>
+        <v>1911.6000000000013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
         <v>27</v>
       </c>
@@ -5921,75 +6175,75 @@
         <v>2943.4016745522958</v>
       </c>
       <c r="H34" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2994.3</v>
       </c>
       <c r="I34" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3046.078476993373</v>
       </c>
       <c r="J34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3098.7523254190514</v>
       </c>
       <c r="K34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3152.3370283512463</v>
       </c>
       <c r="L34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3206.8483366028718</v>
       </c>
       <c r="M34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3262.3022733553771</v>
       </c>
       <c r="N34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3318.7151388686384</v>
       </c>
       <c r="O34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3376.1035152722943</v>
       </c>
       <c r="P34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3434.4842714399365</v>
       </c>
       <c r="Q34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3493.8745679475855</v>
       </c>
       <c r="R34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3554.2918621179106</v>
       </c>
       <c r="S34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3615.753913151676</v>
       </c>
       <c r="T34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3678.2787873479228</v>
       </c>
       <c r="U34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3741.8848634144174</v>
       </c>
       <c r="V34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3806.5908378699337</v>
       </c>
       <c r="W34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3872.4157305399508</v>
       </c>
       <c r="X34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3939.378890147384</v>
       </c>
       <c r="Y34" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4007.4999999999955</v>
       </c>
       <c r="Z34" s="37"/>
@@ -6028,8 +6282,16 @@
         <f t="shared" si="8"/>
         <v>3872.7951528524227</v>
       </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM34" s="35">
+        <f t="shared" si="9"/>
+        <v>2943.4016745522958</v>
+      </c>
+      <c r="AN34">
+        <f t="shared" si="10"/>
+        <v>4007.4999999999955</v>
+      </c>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
         <v>18</v>
       </c>
@@ -6049,75 +6311,75 @@
         <v>2966.2316694870092</v>
       </c>
       <c r="H35" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3018.3</v>
       </c>
       <c r="I35" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3071.2823221847475</v>
       </c>
       <c r="J35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3125.194679973672</v>
       </c>
       <c r="K35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3180.0533989295159</v>
       </c>
       <c r="L35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3235.8750911889942</v>
       </c>
       <c r="M35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3292.6766604932295</v>
       </c>
       <c r="N35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3350.4753073064853</v>
       </c>
       <c r="O35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3409.2885340247544</v>
       </c>
       <c r="P35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3469.1341502757778</v>
       </c>
       <c r="Q35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3530.0302783120965</v>
       </c>
       <c r="R35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3591.9953584987725</v>
       </c>
       <c r="S35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3655.0481548974399</v>
       </c>
       <c r="T35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3719.2077609483763</v>
       </c>
       <c r="U35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3784.4936052523153</v>
       </c>
       <c r="V35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3850.9254574537513</v>
       </c>
       <c r="W35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3918.523434227518</v>
       </c>
       <c r="X35" s="37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3987.3080053704543</v>
       </c>
       <c r="Y35" s="37">
-        <f t="shared" ref="Y35" si="12">X35*$E35</f>
+        <f t="shared" ref="Y35" si="14">X35*$E35</f>
         <v>4057.3000000000006</v>
       </c>
       <c r="Z35" s="37"/>
@@ -6156,8 +6418,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM35" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
         <v>21</v>
       </c>
@@ -6173,79 +6443,79 @@
       </c>
       <c r="F36" s="47"/>
       <c r="G36" s="37">
-        <f t="shared" ref="G36:G53" si="13">B36/E36</f>
+        <f t="shared" ref="G36:G53" si="15">B36/E36</f>
         <v>2727.8186281499247</v>
       </c>
       <c r="H36" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2778.2</v>
       </c>
       <c r="I36" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2829.5118892251312</v>
       </c>
       <c r="J36" s="37">
-        <f t="shared" ref="J36:Y51" si="14">I36*$E36</f>
+        <f t="shared" ref="J36:Y51" si="16">I36*$E36</f>
         <v>2881.7714819906314</v>
       </c>
       <c r="K36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2934.9962818812246</v>
       </c>
       <c r="L36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2989.2041157636168</v>
       </c>
       <c r="M36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3044.4131397573428</v>
       </c>
       <c r="N36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3100.6418453158926</v>
       </c>
       <c r="O36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3157.9090654201532</v>
       </c>
       <c r="P36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3216.233980886238</v>
       </c>
       <c r="Q36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3275.6361267898224</v>
       </c>
       <c r="R36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3336.1353990091288</v>
       </c>
       <c r="S36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3397.7520608887617</v>
       </c>
       <c r="T36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3460.5067500266155</v>
       </c>
       <c r="U36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3524.4204851861377</v>
       </c>
       <c r="V36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3589.5146733362549</v>
       </c>
       <c r="W36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3655.8111168213222</v>
       </c>
       <c r="X36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3723.3320206635003</v>
       </c>
       <c r="Y36" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3792.1000000000026</v>
       </c>
       <c r="Z36" s="37"/>
@@ -6284,8 +6554,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM36" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
         <v>22</v>
       </c>
@@ -6301,79 +6579,79 @@
       </c>
       <c r="F37" s="47"/>
       <c r="G37" s="37">
+        <f t="shared" si="15"/>
+        <v>1106.6411699852845</v>
+      </c>
+      <c r="H37" s="37">
         <f t="shared" si="13"/>
-        <v>1106.6411699852845</v>
-      </c>
-      <c r="H37" s="37">
-        <f t="shared" si="11"/>
         <v>1122.3</v>
       </c>
       <c r="I37" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1138.180400442493</v>
       </c>
       <c r="J37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1154.2855065057772</v>
       </c>
       <c r="K37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1170.6184977454436</v>
       </c>
       <c r="L37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1187.1825987073853</v>
       </c>
       <c r="M37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1203.9810795644046</v>
       </c>
       <c r="N37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1221.0172567618276</v>
       </c>
       <c r="O37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1238.2944936722545</v>
       </c>
       <c r="P37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1255.8162012595747</v>
       </c>
       <c r="Q37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1273.5858387523774</v>
       </c>
       <c r="R37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1291.6069143268905</v>
       </c>
       <c r="S37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1309.882985799584</v>
       </c>
       <c r="T37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1328.4176613295722</v>
       </c>
       <c r="U37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1347.2146001309566</v>
       </c>
       <c r="V37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1366.2775131952467</v>
       </c>
       <c r="W37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1385.6101640240038</v>
       </c>
       <c r="X37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1405.2163693718517</v>
       </c>
       <c r="Y37" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1425.1000000000004</v>
       </c>
       <c r="Z37" s="37"/>
@@ -6412,8 +6690,16 @@
         <f t="shared" si="8"/>
         <v>1385.701348863701</v>
       </c>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM37" s="35">
+        <f t="shared" si="9"/>
+        <v>1106.6411699852845</v>
+      </c>
+      <c r="AN37">
+        <f t="shared" si="10"/>
+        <v>1425.1000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
         <v>23</v>
       </c>
@@ -6429,79 +6715,79 @@
       </c>
       <c r="F38" s="47"/>
       <c r="G38" s="37">
+        <f t="shared" si="15"/>
+        <v>1757.0578275462306</v>
+      </c>
+      <c r="H38" s="37">
         <f t="shared" si="13"/>
-        <v>1757.0578275462306</v>
-      </c>
-      <c r="H38" s="37">
-        <f t="shared" si="11"/>
         <v>1802.2</v>
       </c>
       <c r="I38" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1848.501961108359</v>
       </c>
       <c r="J38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1895.9935080576236</v>
       </c>
       <c r="K38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1944.7052035807537</v>
       </c>
       <c r="L38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1994.6683956257095</v>
       </c>
       <c r="M38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2045.9152375291244</v>
       </c>
       <c r="N38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2098.4787087082791</v>
       </c>
       <c r="O38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2152.3926358846911</v>
       </c>
       <c r="P38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2207.6917148529806</v>
       </c>
       <c r="Q38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2264.411532809017</v>
       </c>
       <c r="R38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2322.5885912517219</v>
       </c>
       <c r="S38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2382.2603294732598</v>
       </c>
       <c r="T38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2443.4651486527391</v>
       </c>
       <c r="U38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2506.2424365689249</v>
       </c>
       <c r="V38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2570.6325929478689</v>
       </c>
       <c r="W38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2636.6770554617697</v>
       </c>
       <c r="X38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2704.4183263957912</v>
       </c>
       <c r="Y38" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2773.9000000000033</v>
       </c>
       <c r="Z38" s="37"/>
@@ -6540,8 +6826,16 @@
         <f t="shared" si="8"/>
         <v>2637.2426582684766</v>
       </c>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM38" s="35">
+        <f t="shared" si="9"/>
+        <v>1757.0578275462306</v>
+      </c>
+      <c r="AN38">
+        <f t="shared" si="10"/>
+        <v>2773.9000000000033</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
         <v>62</v>
       </c>
@@ -6557,79 +6851,79 @@
       </c>
       <c r="F39" s="47"/>
       <c r="G39" s="37">
+        <f t="shared" si="15"/>
+        <v>2699.4968587571771</v>
+      </c>
+      <c r="H39" s="37">
         <f t="shared" si="13"/>
-        <v>2699.4968587571771</v>
-      </c>
-      <c r="H39" s="37">
-        <f t="shared" si="11"/>
         <v>2751.3</v>
       </c>
       <c r="I39" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2804.0972396185703</v>
       </c>
       <c r="J39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2857.9076542857865</v>
       </c>
       <c r="K39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2912.7506867544639</v>
       </c>
       <c r="L39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2968.6461528823779</v>
       </c>
       <c r="M39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3025.6142487921211</v>
       </c>
       <c r="N39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3083.6755581683569</v>
       </c>
       <c r="O39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3142.8510596951051</v>
       </c>
       <c r="P39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3203.162134635751</v>
       </c>
       <c r="Q39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3264.6305745585128</v>
       </c>
       <c r="R39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3327.2785892101597</v>
       </c>
       <c r="S39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3391.1288145408275</v>
       </c>
       <c r="T39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3456.2043208828291</v>
       </c>
       <c r="U39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3522.5286212864157</v>
       </c>
       <c r="V39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3590.1256800155002</v>
       </c>
       <c r="W39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3659.0199212064135</v>
       </c>
       <c r="X39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3729.2362376928222</v>
       </c>
       <c r="Y39" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3800.7999999999943</v>
       </c>
       <c r="Z39" s="37"/>
@@ -6668,8 +6962,16 @@
         <f t="shared" si="8"/>
         <v>3659.460612971578</v>
       </c>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM39" s="35">
+        <f t="shared" si="9"/>
+        <v>2699.4968587571771</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" si="10"/>
+        <v>3800.7999999999943</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
         <v>63</v>
       </c>
@@ -6685,79 +6987,79 @@
       </c>
       <c r="F40" s="47"/>
       <c r="G40" s="37">
+        <f t="shared" si="15"/>
+        <v>2063.4354696662317</v>
+      </c>
+      <c r="H40" s="37">
         <f t="shared" si="13"/>
-        <v>2063.4354696662317</v>
-      </c>
-      <c r="H40" s="37">
-        <f t="shared" si="11"/>
         <v>2112</v>
       </c>
       <c r="I40" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2161.7075336606044</v>
       </c>
       <c r="J40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2212.5849721046461</v>
       </c>
       <c r="K40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2264.6598499350621</v>
       </c>
       <c r="L40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2317.9603498027072</v>
       </c>
       <c r="M40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2372.5153176586564</v>
       </c>
       <c r="N40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2428.3542783654825</v>
       </c>
       <c r="O40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2485.5074516759582</v>
       </c>
       <c r="P40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2544.0057685878264</v>
       </c>
       <c r="Q40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2603.8808880834945</v>
       </c>
       <c r="R40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2665.1652142637095</v>
       </c>
       <c r="S40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2727.8919138844885</v>
       </c>
       <c r="T40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2792.0949343067914</v>
       </c>
       <c r="U40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2857.8090218686557</v>
       </c>
       <c r="V40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2925.069740689733</v>
       </c>
       <c r="W40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2993.9134919184025</v>
       </c>
       <c r="X40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3064.3775334318834</v>
       </c>
       <c r="Y40" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3136.5000000000014</v>
       </c>
       <c r="Z40" s="37"/>
@@ -6796,8 +7098,16 @@
         <f t="shared" si="8"/>
         <v>2994.4535886800063</v>
       </c>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM40" s="35">
+        <f t="shared" si="9"/>
+        <v>2063.4354696662317</v>
+      </c>
+      <c r="AN40">
+        <f t="shared" si="10"/>
+        <v>3136.5000000000014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
         <v>24</v>
       </c>
@@ -6813,79 +7123,79 @@
       </c>
       <c r="F41" s="47"/>
       <c r="G41" s="37">
+        <f t="shared" si="15"/>
+        <v>2362.7866349318456</v>
+      </c>
+      <c r="H41" s="37">
         <f t="shared" si="13"/>
-        <v>2362.7866349318456</v>
-      </c>
-      <c r="H41" s="37">
-        <f t="shared" si="11"/>
         <v>2405.8000000000002</v>
       </c>
       <c r="I41" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2449.5964021596692</v>
       </c>
       <c r="J41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2494.1900962148125</v>
       </c>
       <c r="K41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2539.5955964710633</v>
       </c>
       <c r="L41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2585.8276814598289</v>
       </c>
       <c r="M41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2632.90139874839</v>
       </c>
       <c r="N41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2680.832069837566</v>
       </c>
       <c r="O41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2729.6352951485414</v>
       </c>
       <c r="P41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2779.3269591004714</v>
       </c>
       <c r="Q41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2829.9232352805257</v>
       </c>
       <c r="R41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2881.4405917080499</v>
       </c>
       <c r="S41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2933.895796194558</v>
       </c>
       <c r="T41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2987.3059218013</v>
       </c>
       <c r="U41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3041.6883523961837</v>
       </c>
       <c r="V41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3097.0607883118564</v>
       </c>
       <c r="W41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3153.4412521067889</v>
       </c>
       <c r="X41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3210.8480944312382</v>
       </c>
       <c r="Y41" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3269.2999999999961</v>
       </c>
       <c r="Z41" s="37"/>
@@ -6924,8 +7234,16 @@
         <f t="shared" si="8"/>
         <v>3153.7833782832945</v>
       </c>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM41" s="35">
+        <f t="shared" si="9"/>
+        <v>2362.7866349318456</v>
+      </c>
+      <c r="AN41">
+        <f t="shared" si="10"/>
+        <v>3269.2999999999961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A42" s="33" t="s">
         <v>36</v>
       </c>
@@ -6941,79 +7259,79 @@
       </c>
       <c r="F42" s="47"/>
       <c r="G42" s="37">
+        <f t="shared" si="15"/>
+        <v>1500.8407808650259</v>
+      </c>
+      <c r="H42" s="37">
         <f t="shared" si="13"/>
-        <v>1500.8407808650259</v>
-      </c>
-      <c r="H42" s="37">
-        <f t="shared" si="11"/>
         <v>1527.8</v>
       </c>
       <c r="I42" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1555.2434806939841</v>
       </c>
       <c r="J42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1583.1799216135221</v>
       </c>
       <c r="K42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1611.6181776770802</v>
       </c>
       <c r="L42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1640.5672628617608</v>
       </c>
       <c r="M42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1670.0363530604316</v>
       </c>
       <c r="N42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1700.0347889901775</v>
       </c>
       <c r="O42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1730.5720791529955</v>
       </c>
       <c r="P42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1761.6579028496726</v>
       </c>
       <c r="Q42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1793.3021132478004</v>
       </c>
       <c r="R42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1825.5147405049001</v>
       </c>
       <c r="S42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1858.3059949476478</v>
       </c>
       <c r="T42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1891.6862703082061</v>
       </c>
       <c r="U42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1925.6661470186905</v>
       </c>
       <c r="V42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1960.2563955648131</v>
       </c>
       <c r="W42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1995.4679798997668</v>
       </c>
       <c r="X42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2031.3120609194309</v>
       </c>
       <c r="Y42" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2067.8000000000038</v>
       </c>
       <c r="Z42" s="37"/>
@@ -7052,8 +7370,16 @@
         <f t="shared" si="8"/>
         <v>1995.6788121280035</v>
       </c>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM42" s="35">
+        <f t="shared" si="9"/>
+        <v>1500.8407808650259</v>
+      </c>
+      <c r="AN42">
+        <f t="shared" si="10"/>
+        <v>2067.8000000000038</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
         <v>25</v>
       </c>
@@ -7069,79 +7395,79 @@
       </c>
       <c r="F43" s="47"/>
       <c r="G43" s="37">
+        <f t="shared" si="15"/>
+        <v>1494.2545326063307</v>
+      </c>
+      <c r="H43" s="37">
         <f t="shared" si="13"/>
-        <v>1494.2545326063307</v>
-      </c>
-      <c r="H43" s="37">
-        <f t="shared" si="11"/>
         <v>1525.3</v>
       </c>
       <c r="I43" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1556.9904853773257</v>
       </c>
       <c r="J43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1589.3393899924738</v>
       </c>
       <c r="K43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1622.3603935315575</v>
       </c>
       <c r="L43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1656.0674598974949</v>
       </c>
       <c r="M43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1690.4748431150563</v>
       </c>
       <c r="N43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1725.5970933585984</v>
       </c>
       <c r="O43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1761.4490631050328</v>
       </c>
       <c r="P43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1798.0459134146336</v>
       </c>
       <c r="Q43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1835.4031203423374</v>
       </c>
       <c r="R43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1873.5364814822487</v>
       </c>
       <c r="S43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1912.4621226481174</v>
       </c>
       <c r="T43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1952.1965046926132</v>
       </c>
       <c r="U43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1992.7564304682819</v>
       </c>
       <c r="V43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2034.1590519331262</v>
       </c>
       <c r="W43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2076.421877403815</v>
       </c>
       <c r="X43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2119.5627789595906</v>
       </c>
       <c r="Y43" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2163.600000000004</v>
       </c>
       <c r="Z43" s="37"/>
@@ -7180,8 +7506,16 @@
         <f t="shared" si="8"/>
         <v>2076.7145694321771</v>
       </c>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM43" s="35">
+        <f t="shared" si="9"/>
+        <v>1494.2545326063307</v>
+      </c>
+      <c r="AN43">
+        <f t="shared" si="10"/>
+        <v>2163.600000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A44" s="33" t="s">
         <v>6</v>
       </c>
@@ -7197,79 +7531,79 @@
       </c>
       <c r="F44" s="47"/>
       <c r="G44" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1418.1034789628745</v>
       </c>
       <c r="H44" s="37">
-        <f t="shared" ref="H44:I53" si="15">G44*$E44</f>
+        <f t="shared" ref="H44:I53" si="17">G44*$E44</f>
         <v>1447.8</v>
       </c>
       <c r="I44" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1478.1183962209825</v>
       </c>
       <c r="J44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1509.0716903211005</v>
       </c>
       <c r="K44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1540.673177704042</v>
       </c>
       <c r="L44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1572.9364321926946</v>
       </c>
       <c r="M44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1605.8753118595248</v>
       </c>
       <c r="N44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1639.5039649790515</v>
       </c>
       <c r="O44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1673.8368361049713</v>
       </c>
       <c r="P44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1708.8886722745433</v>
       </c>
       <c r="Q44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1744.674529342901</v>
       </c>
       <c r="R44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1781.2097784500113</v>
       </c>
       <c r="S44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1818.5101126230572</v>
       </c>
       <c r="T44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1856.5915535170823</v>
       </c>
       <c r="U44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1895.4704582967895</v>
       </c>
       <c r="V44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1935.1635266624542</v>
       </c>
       <c r="W44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1975.687808022964</v>
       </c>
       <c r="X44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2017.0607088190716</v>
       </c>
       <c r="Y44" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2059.3000000000029</v>
       </c>
       <c r="Z44" s="37"/>
@@ -7308,8 +7642,16 @@
         <f t="shared" si="8"/>
         <v>1975.9706811681633</v>
       </c>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM44" s="35">
+        <f t="shared" si="9"/>
+        <v>1418.1034789628745</v>
+      </c>
+      <c r="AN44">
+        <f t="shared" si="10"/>
+        <v>2059.3000000000029</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
         <v>31</v>
       </c>
@@ -7325,79 +7667,79 @@
       </c>
       <c r="F45" s="47"/>
       <c r="G45" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2641.0886003046617</v>
       </c>
       <c r="H45" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2684</v>
       </c>
       <c r="I45" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2727.6086077418995</v>
       </c>
       <c r="J45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2771.9257515006348</v>
       </c>
       <c r="K45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2816.9629432990182</v>
       </c>
       <c r="L45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2862.731882202816</v>
       </c>
       <c r="M45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2909.2444573597504</v>
       </c>
       <c r="N45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2956.5127510878788</v>
       </c>
       <c r="O45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3004.5490420141514</v>
       </c>
       <c r="P45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3053.3658082639631</v>
       </c>
       <c r="Q45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3102.9757307025288</v>
       </c>
       <c r="R45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3153.3916962289222</v>
       </c>
       <c r="S45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3204.6268011236352</v>
       </c>
       <c r="T45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3256.6943544505275</v>
       </c>
       <c r="U45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3309.607881514049</v>
       </c>
       <c r="V45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3363.3811273726351</v>
       </c>
       <c r="W45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3418.0280604091854</v>
       </c>
       <c r="X45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3473.5628759595543</v>
       </c>
       <c r="Y45" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3529.9999999999955</v>
       </c>
       <c r="Z45" s="37"/>
@@ -7436,8 +7778,16 @@
         <f t="shared" si="8"/>
         <v>3418.3240212471251</v>
       </c>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM45" s="35">
+        <f t="shared" si="9"/>
+        <v>2641.0886003046617</v>
+      </c>
+      <c r="AN45">
+        <f t="shared" si="10"/>
+        <v>3529.9999999999955</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
         <v>45</v>
       </c>
@@ -7453,79 +7803,79 @@
       </c>
       <c r="F46" s="47"/>
       <c r="G46" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1738.4152014077713</v>
       </c>
       <c r="H46" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1769.6</v>
       </c>
       <c r="I46" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1801.3442113622334</v>
       </c>
       <c r="J46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1833.6578705968732</v>
       </c>
       <c r="K46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1866.5511928223762</v>
       </c>
       <c r="L46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1900.0345764024974</v>
       </c>
       <c r="M46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1934.1186062334607</v>
       </c>
       <c r="N46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1968.8140570900969</v>
       </c>
       <c r="O46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2004.1318970320071</v>
       </c>
       <c r="P46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2040.0832908708283</v>
       </c>
       <c r="Q46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2076.6796036996961</v>
       </c>
       <c r="R46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2113.9324044860223</v>
       </c>
       <c r="S46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2151.8534697287205</v>
       </c>
       <c r="T46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2190.4547871810396</v>
       </c>
       <c r="U46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2229.748559640178</v>
       </c>
       <c r="V46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2269.747208804878</v>
       </c>
       <c r="W46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2310.4633792022228</v>
       </c>
       <c r="X46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2351.9099421848719</v>
       </c>
       <c r="Y46" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2394.1000000000022</v>
       </c>
       <c r="Z46" s="37"/>
@@ -7564,8 +7914,16 @@
         <f t="shared" si="8"/>
         <v>2310.7068433973241</v>
       </c>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM46" s="35">
+        <f t="shared" si="9"/>
+        <v>1738.4152014077713</v>
+      </c>
+      <c r="AN46">
+        <f t="shared" si="10"/>
+        <v>2394.1000000000022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A47" s="33" t="s">
         <v>41</v>
       </c>
@@ -7581,79 +7939,79 @@
       </c>
       <c r="F47" s="47"/>
       <c r="G47" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1395.9616719374649</v>
       </c>
       <c r="H47" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1419.5</v>
       </c>
       <c r="I47" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1443.4352249824988</v>
       </c>
       <c r="J47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1467.7740392534533</v>
       </c>
       <c r="K47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1492.5232480262625</v>
       </c>
       <c r="L47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1517.6897712619923</v>
       </c>
       <c r="M47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1543.2806456042206</v>
       </c>
       <c r="N47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1569.3030263465052</v>
       </c>
       <c r="O47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1595.7641894330286</v>
       </c>
       <c r="P47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1622.6715334929754</v>
       </c>
       <c r="Q47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1650.0325819092141</v>
       </c>
       <c r="R47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1677.8549849218598</v>
       </c>
       <c r="S47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1706.1465217673067</v>
       </c>
       <c r="T47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1734.9151028533288</v>
       </c>
       <c r="U47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1764.1687719708557</v>
       </c>
       <c r="V47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1793.9157085430438</v>
       </c>
       <c r="W47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1824.16422991227</v>
       </c>
       <c r="X47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1854.922793665688</v>
       </c>
       <c r="Y47" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1886.1999999999985</v>
       </c>
       <c r="Z47" s="37"/>
@@ -7692,8 +8050,16 @@
         <f t="shared" si="8"/>
         <v>1824.3342440403339</v>
       </c>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM47" s="35">
+        <f t="shared" si="9"/>
+        <v>1395.9616719374649</v>
+      </c>
+      <c r="AN47">
+        <f t="shared" si="10"/>
+        <v>1886.1999999999985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
         <v>64</v>
       </c>
@@ -7709,79 +8075,79 @@
       </c>
       <c r="F48" s="47"/>
       <c r="G48" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2175.5740521347007</v>
       </c>
       <c r="H48" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2220.5</v>
       </c>
       <c r="I48" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2266.3536757859438</v>
       </c>
       <c r="J48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2313.1542372206527</v>
       </c>
       <c r="K48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2360.9212376423588</v>
       </c>
       <c r="L48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2409.6746341688176</v>
       </c>
       <c r="M48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2459.4347960354198</v>
       </c>
       <c r="N48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2510.2225131054838</v>
       </c>
       <c r="O48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2562.0590045562903</v>
       </c>
       <c r="P48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2614.9659277444835</v>
       </c>
       <c r="Q48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2668.9653872545423</v>
       </c>
       <c r="R48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2724.0799441341082</v>
       </c>
       <c r="S48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2780.3326253200203</v>
       </c>
       <c r="T48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2837.7469332590008</v>
       </c>
       <c r="U48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2896.3468557270103</v>
       </c>
       <c r="V48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2956.1568758513718</v>
       </c>
       <c r="W48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3017.2019823398555</v>
       </c>
       <c r="X48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3079.5076799209946</v>
       </c>
       <c r="Y48" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3143.0999999999958</v>
       </c>
       <c r="Z48" s="37"/>
@@ -7820,8 +8186,16 @@
         <f t="shared" si="8"/>
         <v>3017.6221793707409</v>
       </c>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM48" s="35">
+        <f t="shared" si="9"/>
+        <v>2175.5740521347007</v>
+      </c>
+      <c r="AN48">
+        <f t="shared" si="10"/>
+        <v>3143.0999999999958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
         <v>19</v>
       </c>
@@ -7837,79 +8211,79 @@
       </c>
       <c r="F49" s="47"/>
       <c r="G49" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2446.4726339171139</v>
       </c>
       <c r="H49" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2492.3000000000002</v>
       </c>
       <c r="I49" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2538.9858050668258</v>
       </c>
       <c r="J49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2586.5461294109205</v>
       </c>
       <c r="K49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2634.9973545419361</v>
       </c>
       <c r="L49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2684.3561688282362</v>
       </c>
       <c r="M49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2734.6395732449778</v>
       </c>
       <c r="N49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2785.8648872298681</v>
       </c>
       <c r="O49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2838.049754648609</v>
       </c>
       <c r="P49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2891.212149872088</v>
       </c>
       <c r="Q49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2945.3703839674081</v>
       </c>
       <c r="R49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3000.5431110048848</v>
       </c>
       <c r="S49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3056.7493344831901</v>
       </c>
       <c r="T49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3114.0084138748489</v>
       </c>
       <c r="U49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3172.3400712943471</v>
       </c>
       <c r="V49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3231.7643982911482</v>
       </c>
       <c r="W49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3292.3018627699539</v>
       </c>
       <c r="X49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3353.9733160405972</v>
       </c>
       <c r="Y49" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3416.7999999999943</v>
       </c>
       <c r="Z49" s="37"/>
@@ -7948,8 +8322,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM49" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
         <v>8</v>
       </c>
@@ -7965,79 +8347,79 @@
       </c>
       <c r="F50" s="47"/>
       <c r="G50" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2683.462474792595</v>
       </c>
       <c r="H50" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2733.6</v>
       </c>
       <c r="I50" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2784.6742893535543</v>
       </c>
       <c r="J50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2836.7028452541417</v>
       </c>
       <c r="K50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2889.7034971156286</v>
       </c>
       <c r="L50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2943.694407474738</v>
       </c>
       <c r="M50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2998.6940782150818</v>
       </c>
       <c r="N50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3054.7213569074825</v>
       </c>
       <c r="O50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3111.7954432687548</v>
       </c>
       <c r="P50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3169.9358957411646</v>
       </c>
       <c r="Q50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3229.1626381948163</v>
       </c>
       <c r="R50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3289.4959667552671</v>
       </c>
       <c r="S50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3350.9565567587088</v>
       </c>
       <c r="T50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3413.5654698370977</v>
       </c>
       <c r="U50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3477.3441611356639</v>
       </c>
       <c r="V50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3542.3144866652715</v>
       </c>
       <c r="W50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3608.4987107921479</v>
       </c>
       <c r="X50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3675.9195138675523</v>
       </c>
       <c r="Y50" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3744.5999999999958</v>
       </c>
       <c r="Z50" s="37"/>
@@ -8076,8 +8458,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM50" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
         <v>20</v>
       </c>
@@ -8093,79 +8483,79 @@
       </c>
       <c r="F51" s="47"/>
       <c r="G51" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2256.4410417423865</v>
       </c>
       <c r="H51" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2297.9</v>
       </c>
       <c r="I51" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2340.1207088143574</v>
       </c>
       <c r="J51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2383.1171642899217</v>
       </c>
       <c r="K51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2426.903619690062</v>
       </c>
       <c r="L51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2471.4945901619903</v>
       </c>
       <c r="M51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2516.9048575485126</v>
       </c>
       <c r="N51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2563.1494752881867</v>
       </c>
       <c r="O51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2610.2437734055179</v>
       </c>
       <c r="P51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2658.2033635928383</v>
       </c>
       <c r="Q51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2707.0441443855616</v>
       </c>
       <c r="R51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2756.7823064325235</v>
       </c>
       <c r="S51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2807.4343378631602</v>
       </c>
       <c r="T51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2859.0170297532986</v>
       </c>
       <c r="U51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2911.5474816913738</v>
       </c>
       <c r="V51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>2965.0431074469188</v>
       </c>
       <c r="W51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3019.521640743204</v>
       </c>
       <c r="X51" s="37">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3075.0011411359405</v>
       </c>
       <c r="Y51" s="37">
-        <f t="shared" ref="Y51" si="16">X51*$E51</f>
+        <f t="shared" ref="Y51" si="18">X51*$E51</f>
         <v>3131.4999999999977</v>
       </c>
       <c r="Z51" s="37"/>
@@ -8204,8 +8594,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM51" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
         <v>43</v>
       </c>
@@ -8221,79 +8619,79 @@
       </c>
       <c r="F52" s="47"/>
       <c r="G52" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>407.7248007016691</v>
       </c>
       <c r="H52" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>412.7</v>
       </c>
       <c r="I52" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>417.73590840411867</v>
       </c>
       <c r="J52" s="37">
-        <f t="shared" ref="J52:Y53" si="17">I52*$E52</f>
+        <f t="shared" ref="J52:Y53" si="19">I52*$E52</f>
         <v>422.8332667075702</v>
       </c>
       <c r="K52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>427.9928247433192</v>
       </c>
       <c r="L52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>433.21534149405187</v>
       </c>
       <c r="M52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>438.50158520382422</v>
       </c>
       <c r="N52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>443.85233349107233</v>
       </c>
       <c r="O52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>449.26837346300204</v>
       </c>
       <c r="P52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>454.75050183137387</v>
       </c>
       <c r="Q52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>460.2995250297015</v>
       </c>
       <c r="R52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>465.91625933187964</v>
       </c>
       <c r="S52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>471.60153097225992</v>
       </c>
       <c r="T52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>477.35617626719193</v>
       </c>
       <c r="U52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>483.18104173804704</v>
       </c>
       <c r="V52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>489.07698423574379</v>
       </c>
       <c r="W52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>495.0448710667925</v>
       </c>
       <c r="X52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>501.08558012087803</v>
       </c>
       <c r="Y52" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>507.19999999999948</v>
       </c>
       <c r="Z52" s="37"/>
@@ -8332,8 +8730,16 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM52" s="35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
         <v>49</v>
       </c>
@@ -8349,79 +8755,79 @@
       </c>
       <c r="F53" s="47"/>
       <c r="G53" s="37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1059.4148013380684</v>
       </c>
       <c r="H53" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1071.4000000000001</v>
       </c>
       <c r="I53" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1083.5207876557654</v>
       </c>
       <c r="J53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1095.7786982286448</v>
       </c>
       <c r="K53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1108.1752829952495</v>
       </c>
       <c r="L53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1120.71211078184</v>
       </c>
       <c r="M53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1133.3907681628659</v>
       </c>
       <c r="N53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1146.2128596617522</v>
       </c>
       <c r="O53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1159.1800079539564</v>
       </c>
       <c r="P53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1172.2938540723233</v>
       </c>
       <c r="Q53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1185.5560576147625</v>
       </c>
       <c r="R53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1198.968296954276</v>
       </c>
       <c r="S53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1212.5322694513613</v>
       </c>
       <c r="T53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1226.2496916688181</v>
       </c>
       <c r="U53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1240.1222995889837</v>
       </c>
       <c r="V53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1254.1518488334277</v>
       </c>
       <c r="W53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1268.3401148851315</v>
       </c>
       <c r="X53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1282.6888933131804</v>
       </c>
       <c r="Y53" s="37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1297.1999999999991</v>
       </c>
       <c r="Z53" s="37"/>
@@ -8460,8 +8866,16 @@
         <f t="shared" si="8"/>
         <v>1268.3936190105799</v>
       </c>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM53" s="35">
+        <f t="shared" si="9"/>
+        <v>1059.4148013380684</v>
+      </c>
+      <c r="AN53">
+        <f t="shared" si="10"/>
+        <v>1297.1999999999991</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -8493,7 +8907,7 @@
       <c r="AC54" s="33"/>
       <c r="AD54" s="33"/>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A55" s="46" t="s">
         <v>73</v>
       </c>
@@ -8542,8 +8956,16 @@
         <f>SUM(AK4:AK53)</f>
         <v>75186.765519527791</v>
       </c>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="AM55" s="35">
+        <f>SUM(AM4:AM53)</f>
+        <v>56042.222134060088</v>
+      </c>
+      <c r="AN55" s="35">
+        <f>SUM(AN4:AN53)</f>
+        <v>78004.39999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A56" s="48" t="s">
         <v>2</v>
       </c>
@@ -8581,27 +9003,27 @@
       <c r="AC56" s="33"/>
       <c r="AD56" s="33"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A63" s="31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
         <v>82</v>
       </c>
@@ -8628,6 +9050,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Rashin-100.xlsx
+++ b/Rashin-100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A11B71-BD7A-4C38-B68B-5712B2F2E077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0661C0E2-EC76-4577-B9EA-10AC2CE6F374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="660" windowWidth="36405" windowHeight="22230" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15750" yWindow="1950" windowWidth="22020" windowHeight="21630" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab19" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="POP" sheetId="5" r:id="rId3"/>
     <sheet name="Births" sheetId="2" r:id="rId4"/>
     <sheet name="Deaths" sheetId="3" r:id="rId5"/>
+    <sheet name="УГВИ-1914" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="107">
   <si>
     <r>
       <rPr>
@@ -325,6 +326,48 @@
   </si>
   <si>
     <t>население губерний в границах РСФСР</t>
+  </si>
+  <si>
+    <t>Население на 1 января 1914 г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Олонецкая </t>
+  </si>
+  <si>
+    <t>Петроградская</t>
+  </si>
+  <si>
+    <t>г. Петроград</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ярославская </t>
+  </si>
+  <si>
+    <t>г. Москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Калужская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тульская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воронежская </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пензенская </t>
+  </si>
+  <si>
+    <t>Обл войска Донского</t>
+  </si>
+  <si>
+    <t>согласно УГВИ МВД, "Отчёт о состоянии народного здравия и организации врачебной помощи в России за 1913 год", Пг. 1915, раздел "Таблицы", стр. 2-67</t>
+  </si>
+  <si>
+    <t>Севастопольское градон.</t>
   </si>
 </sst>
 </file>
@@ -691,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -837,6 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1950,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC942A23-44FC-4EF1-B80F-CAE496026525}">
   <dimension ref="A1:AN68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AN55" sqref="AN55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2069,7 +2113,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="43">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="AN3" s="43">
         <v>1914</v>
@@ -2203,8 +2247,8 @@
         <v>464.97472358933163</v>
       </c>
       <c r="AM4" s="35">
-        <f>G4*AF4</f>
-        <v>339.77535266948252</v>
+        <f>H4*AF4</f>
+        <v>346.5</v>
       </c>
       <c r="AN4">
         <f>Y4*AF4</f>
@@ -2339,8 +2383,8 @@
         <v>1274.7117063706971</v>
       </c>
       <c r="AM5" s="35">
-        <f t="shared" ref="AM5:AM53" si="9">G5*AF5</f>
-        <v>987.62829398872975</v>
+        <f t="shared" ref="AM5:AM53" si="9">H5*AF5</f>
+        <v>1003.5</v>
       </c>
       <c r="AN5">
         <f t="shared" ref="AN5:AN53" si="10">Y5*AF5</f>
@@ -2884,7 +2928,7 @@
       </c>
       <c r="AM9" s="35">
         <f t="shared" si="9"/>
-        <v>1490.0036728942678</v>
+        <v>1515.7</v>
       </c>
       <c r="AN9">
         <f t="shared" si="10"/>
@@ -3020,7 +3064,7 @@
       </c>
       <c r="AM10" s="35">
         <f t="shared" si="9"/>
-        <v>1320.9279562184652</v>
+        <v>1341.8</v>
       </c>
       <c r="AN10">
         <f t="shared" si="10"/>
@@ -3292,7 +3336,7 @@
       </c>
       <c r="AM12" s="35">
         <f t="shared" si="9"/>
-        <v>2478.1506115577131</v>
+        <v>2531.3000000000002</v>
       </c>
       <c r="AN12">
         <f t="shared" si="10"/>
@@ -3428,7 +3472,7 @@
       </c>
       <c r="AM13" s="35">
         <f t="shared" si="9"/>
-        <v>2984.9796185791683</v>
+        <v>3030.8</v>
       </c>
       <c r="AN13">
         <f t="shared" si="10"/>
@@ -3700,7 +3744,7 @@
       </c>
       <c r="AM15" s="35">
         <f t="shared" si="9"/>
-        <v>2502.6324980615846</v>
+        <v>2564.1999999999998</v>
       </c>
       <c r="AN15">
         <f t="shared" si="10"/>
@@ -3972,7 +4016,7 @@
       </c>
       <c r="AM17" s="35">
         <f t="shared" si="9"/>
-        <v>2135.4641430252786</v>
+        <v>2170.6999999999998</v>
       </c>
       <c r="AN17">
         <f t="shared" si="10"/>
@@ -4108,7 +4152,7 @@
       </c>
       <c r="AM18" s="35">
         <f t="shared" si="9"/>
-        <v>1115.2753051877451</v>
+        <v>1132.8</v>
       </c>
       <c r="AN18">
         <f t="shared" si="10"/>
@@ -4516,7 +4560,7 @@
       </c>
       <c r="AM21" s="35">
         <f t="shared" si="9"/>
-        <v>1364.8945942799674</v>
+        <v>1387</v>
       </c>
       <c r="AN21">
         <f t="shared" si="10"/>
@@ -4788,7 +4832,7 @@
       </c>
       <c r="AM23" s="35">
         <f t="shared" si="9"/>
-        <v>2327.1465765571993</v>
+        <v>2371</v>
       </c>
       <c r="AN23">
         <f t="shared" si="10"/>
@@ -5332,7 +5376,7 @@
       </c>
       <c r="AM27" s="35">
         <f t="shared" si="9"/>
-        <v>2375.4213675390993</v>
+        <v>2430.6</v>
       </c>
       <c r="AN27">
         <f t="shared" si="10"/>
@@ -5468,7 +5512,7 @@
       </c>
       <c r="AM28" s="35">
         <f t="shared" si="9"/>
-        <v>1560.2374515713771</v>
+        <v>1584.8</v>
       </c>
       <c r="AN28">
         <f t="shared" si="10"/>
@@ -5604,7 +5648,7 @@
       </c>
       <c r="AM29" s="35">
         <f t="shared" si="9"/>
-        <v>1350.9242356482871</v>
+        <v>1367</v>
       </c>
       <c r="AN29">
         <f t="shared" si="10"/>
@@ -5740,7 +5784,7 @@
       </c>
       <c r="AM30" s="35">
         <f t="shared" si="9"/>
-        <v>358.96663671403655</v>
+        <v>364.2</v>
       </c>
       <c r="AN30">
         <f t="shared" si="10"/>
@@ -5876,7 +5920,7 @@
       </c>
       <c r="AM31" s="35">
         <f t="shared" si="9"/>
-        <v>1548.6607059305773</v>
+        <v>1576.2</v>
       </c>
       <c r="AN31">
         <f t="shared" si="10"/>
@@ -6012,7 +6056,7 @@
       </c>
       <c r="AM32" s="35">
         <f t="shared" si="9"/>
-        <v>1996.6784127792205</v>
+        <v>2033.8</v>
       </c>
       <c r="AN32">
         <f t="shared" si="10"/>
@@ -6148,7 +6192,7 @@
       </c>
       <c r="AM33" s="35">
         <f t="shared" si="9"/>
-        <v>1447.9819458619127</v>
+        <v>1470.5</v>
       </c>
       <c r="AN33">
         <f t="shared" si="10"/>
@@ -6284,7 +6328,7 @@
       </c>
       <c r="AM34" s="35">
         <f t="shared" si="9"/>
-        <v>2943.4016745522958</v>
+        <v>2994.3</v>
       </c>
       <c r="AN34">
         <f t="shared" si="10"/>
@@ -6692,7 +6736,7 @@
       </c>
       <c r="AM37" s="35">
         <f t="shared" si="9"/>
-        <v>1106.6411699852845</v>
+        <v>1122.3</v>
       </c>
       <c r="AN37">
         <f t="shared" si="10"/>
@@ -6828,7 +6872,7 @@
       </c>
       <c r="AM38" s="35">
         <f t="shared" si="9"/>
-        <v>1757.0578275462306</v>
+        <v>1802.2</v>
       </c>
       <c r="AN38">
         <f t="shared" si="10"/>
@@ -6964,7 +7008,7 @@
       </c>
       <c r="AM39" s="35">
         <f t="shared" si="9"/>
-        <v>2699.4968587571771</v>
+        <v>2751.3</v>
       </c>
       <c r="AN39">
         <f t="shared" si="10"/>
@@ -7100,7 +7144,7 @@
       </c>
       <c r="AM40" s="35">
         <f t="shared" si="9"/>
-        <v>2063.4354696662317</v>
+        <v>2112</v>
       </c>
       <c r="AN40">
         <f t="shared" si="10"/>
@@ -7236,7 +7280,7 @@
       </c>
       <c r="AM41" s="35">
         <f t="shared" si="9"/>
-        <v>2362.7866349318456</v>
+        <v>2405.8000000000002</v>
       </c>
       <c r="AN41">
         <f t="shared" si="10"/>
@@ -7372,7 +7416,7 @@
       </c>
       <c r="AM42" s="35">
         <f t="shared" si="9"/>
-        <v>1500.8407808650259</v>
+        <v>1527.8</v>
       </c>
       <c r="AN42">
         <f t="shared" si="10"/>
@@ -7508,7 +7552,7 @@
       </c>
       <c r="AM43" s="35">
         <f t="shared" si="9"/>
-        <v>1494.2545326063307</v>
+        <v>1525.3</v>
       </c>
       <c r="AN43">
         <f t="shared" si="10"/>
@@ -7644,7 +7688,7 @@
       </c>
       <c r="AM44" s="35">
         <f t="shared" si="9"/>
-        <v>1418.1034789628745</v>
+        <v>1447.8</v>
       </c>
       <c r="AN44">
         <f t="shared" si="10"/>
@@ -7780,7 +7824,7 @@
       </c>
       <c r="AM45" s="35">
         <f t="shared" si="9"/>
-        <v>2641.0886003046617</v>
+        <v>2684</v>
       </c>
       <c r="AN45">
         <f t="shared" si="10"/>
@@ -7916,7 +7960,7 @@
       </c>
       <c r="AM46" s="35">
         <f t="shared" si="9"/>
-        <v>1738.4152014077713</v>
+        <v>1769.6</v>
       </c>
       <c r="AN46">
         <f t="shared" si="10"/>
@@ -8052,7 +8096,7 @@
       </c>
       <c r="AM47" s="35">
         <f t="shared" si="9"/>
-        <v>1395.9616719374649</v>
+        <v>1419.5</v>
       </c>
       <c r="AN47">
         <f t="shared" si="10"/>
@@ -8188,7 +8232,7 @@
       </c>
       <c r="AM48" s="35">
         <f t="shared" si="9"/>
-        <v>2175.5740521347007</v>
+        <v>2220.5</v>
       </c>
       <c r="AN48">
         <f t="shared" si="10"/>
@@ -8868,7 +8912,7 @@
       </c>
       <c r="AM53" s="35">
         <f t="shared" si="9"/>
-        <v>1059.4148013380684</v>
+        <v>1071.4000000000001</v>
       </c>
       <c r="AN53">
         <f t="shared" si="10"/>
@@ -8958,7 +9002,7 @@
       </c>
       <c r="AM55" s="35">
         <f>SUM(AM4:AM53)</f>
-        <v>56042.222134060088</v>
+        <v>57076.200000000012</v>
       </c>
       <c r="AN55" s="35">
         <f>SUM(AN4:AN53)</f>
@@ -13652,4 +13696,625 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62788C38-34A8-4749-A018-B92039B0FA7E}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="55">
+        <v>469845</v>
+      </c>
+      <c r="E4" s="55">
+        <f>B4*C4</f>
+        <v>469845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55">
+        <v>1347837</v>
+      </c>
+      <c r="E5" s="55">
+        <f t="shared" ref="E5:E42" si="0">B5*C5</f>
+        <v>1347837</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="E6" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="55">
+        <v>2251149</v>
+      </c>
+      <c r="E7" s="55">
+        <f t="shared" si="0"/>
+        <v>2251149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="55">
+        <v>1679705</v>
+      </c>
+      <c r="E8" s="55">
+        <f t="shared" si="0"/>
+        <v>1679705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="55">
+        <v>3702589</v>
+      </c>
+      <c r="E9" s="55">
+        <f t="shared" si="0"/>
+        <v>3702589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="55">
+        <v>3813263</v>
+      </c>
+      <c r="E10" s="55">
+        <f t="shared" si="0"/>
+        <v>3813263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="E11" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="55">
+        <v>2850101</v>
+      </c>
+      <c r="E12" s="55">
+        <f t="shared" si="0"/>
+        <v>2850101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="55">
+        <v>1496259</v>
+      </c>
+      <c r="E13" s="55">
+        <f t="shared" si="0"/>
+        <v>1496259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="55">
+        <v>1784369</v>
+      </c>
+      <c r="E14" s="55">
+        <f t="shared" si="0"/>
+        <v>1784369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="55">
+        <v>3065857</v>
+      </c>
+      <c r="E15" s="55">
+        <f t="shared" si="0"/>
+        <v>3065857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="E16" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="E17" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="55">
+        <v>1822969</v>
+      </c>
+      <c r="E18" s="55">
+        <f t="shared" si="0"/>
+        <v>1822969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="55">
+        <v>1674847</v>
+      </c>
+      <c r="E19" s="55">
+        <f t="shared" si="0"/>
+        <v>1674847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="55">
+        <v>2108358</v>
+      </c>
+      <c r="E20" s="55">
+        <f t="shared" si="0"/>
+        <v>2108358</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="55">
+        <v>1667068</v>
+      </c>
+      <c r="E21" s="55">
+        <f t="shared" si="0"/>
+        <v>1667068</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="55">
+        <v>3669288</v>
+      </c>
+      <c r="E22" s="55">
+        <f t="shared" si="0"/>
+        <v>3669288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" s="55">
+        <v>451998</v>
+      </c>
+      <c r="E23" s="55">
+        <f t="shared" si="0"/>
+        <v>451998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="55">
+        <v>2276163</v>
+      </c>
+      <c r="E24" s="55">
+        <f t="shared" si="0"/>
+        <v>2276163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="55">
+        <v>2719100</v>
+      </c>
+      <c r="E25" s="55">
+        <f t="shared" si="0"/>
+        <v>2719100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="55">
+        <v>2018507</v>
+      </c>
+      <c r="E26" s="55">
+        <f t="shared" si="0"/>
+        <v>2018507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="55">
+        <v>3831588</v>
+      </c>
+      <c r="E27" s="55">
+        <f t="shared" si="0"/>
+        <v>3831588</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="55">
+        <v>1624685</v>
+      </c>
+      <c r="E28" s="55">
+        <f t="shared" si="0"/>
+        <v>1624685</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="55">
+        <v>1708600</v>
+      </c>
+      <c r="E29" s="55">
+        <f t="shared" si="0"/>
+        <v>1708600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="55">
+        <v>1449601</v>
+      </c>
+      <c r="E30" s="55">
+        <f t="shared" si="0"/>
+        <v>1449601</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="55">
+        <v>2653885</v>
+      </c>
+      <c r="E31" s="55">
+        <f t="shared" si="0"/>
+        <v>2653885</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="55">
+        <v>3805896</v>
+      </c>
+      <c r="E32" s="55">
+        <f t="shared" si="0"/>
+        <v>3805896</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="55">
+        <v>3281606</v>
+      </c>
+      <c r="E33" s="55">
+        <f t="shared" si="0"/>
+        <v>3281606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="55">
+        <v>2038819</v>
+      </c>
+      <c r="E34" s="55">
+        <f t="shared" si="0"/>
+        <v>2038819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" s="55">
+        <v>2110384</v>
+      </c>
+      <c r="E35" s="55">
+        <f t="shared" si="0"/>
+        <v>2110384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" s="55">
+        <v>1950420</v>
+      </c>
+      <c r="E36" s="55">
+        <f t="shared" si="0"/>
+        <v>1950420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="55">
+        <v>72711</v>
+      </c>
+      <c r="E37" s="55">
+        <f t="shared" si="0"/>
+        <v>72711</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="55">
+        <v>3843537</v>
+      </c>
+      <c r="E38" s="55">
+        <f t="shared" si="0"/>
+        <v>3843537</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="55">
+        <v>2376679</v>
+      </c>
+      <c r="E39" s="55">
+        <f t="shared" si="0"/>
+        <v>2376679</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="55">
+        <v>1983258</v>
+      </c>
+      <c r="E40" s="55">
+        <f t="shared" si="0"/>
+        <v>1983258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="55">
+        <v>3143093</v>
+      </c>
+      <c r="E41" s="55">
+        <f t="shared" si="0"/>
+        <v>3143093</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="55">
+        <v>1425685</v>
+      </c>
+      <c r="E42" s="55">
+        <f t="shared" si="0"/>
+        <v>1425685</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="55"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="55"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="55">
+        <f>SUM(E4:E42)</f>
+        <v>78169719</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A42">
+    <sortCondition ref="A4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>